--- a/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -4235,8 +4235,8 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4264,8 +4264,8 @@
       <c r="A2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>1052</v>
+      <c r="B2" t="s">
+        <v>1099</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -12639,7 +12639,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12868,7 +12868,7 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -13038,7 +13038,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="46" activeTab="48"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -60,8 +60,9 @@
     <sheet name="BlockGlobalClient" sheetId="48" r:id="rId46"/>
     <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId47"/>
     <sheet name="CreateGeneralJournal" sheetId="52" r:id="rId48"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId49"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId50"/>
+    <sheet name="ReverseGL" sheetId="53" r:id="rId49"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId50"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId51"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="1134">
   <si>
     <t>Description</t>
   </si>
@@ -3467,6 +3468,15 @@
   </si>
   <si>
     <t>1517_TestAutomationJob</t>
+  </si>
+  <si>
+    <t>03/13/2020</t>
+  </si>
+  <si>
+    <t>DateEntry</t>
+  </si>
+  <si>
+    <t>JournalNo</t>
   </si>
 </sst>
 </file>
@@ -3759,7 +3769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3949,6 +3959,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4235,7 +4256,7 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6691,7 +6712,7 @@
   <dimension ref="A1:EY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12753,111 +12774,46 @@
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="99" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="39">
-        <v>1517</v>
+      <c r="A1" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1048</v>
-      </c>
+      <c r="A2" s="99" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B2" s="101"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1057</v>
+      <c r="A3" s="99" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13031,6 +12987,117 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="39">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegPack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="46" activeTab="48"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="1144">
   <si>
     <t>Description</t>
   </si>
@@ -2570,12 +2570,6 @@
     <t>ZMK</t>
   </si>
   <si>
-    <t>Template Number</t>
-  </si>
-  <si>
-    <t>ZZ1307_RB106_FP-CP_Principal</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
@@ -2603,9 +2597,6 @@
     <t>1307100149</t>
   </si>
   <si>
-    <t>1307200451</t>
-  </si>
-  <si>
     <t>1307_TestEmployeeAutomation7</t>
   </si>
   <si>
@@ -2687,9 +2678,6 @@
     <t>E1461</t>
   </si>
   <si>
-    <t>ZZ1322_RB101_FP-CP_Principal</t>
-  </si>
-  <si>
     <t>1228</t>
   </si>
   <si>
@@ -3125,9 +3113,6 @@
     <t>住宿费用 - 国内内部会议</t>
   </si>
   <si>
-    <t>ZZ1319_RB137_RT-CP</t>
-  </si>
-  <si>
     <t>住宿费用 - 国内其他会议</t>
   </si>
   <si>
@@ -3137,9 +3122,6 @@
     <t>住宿费用 - 国际内部会议</t>
   </si>
   <si>
-    <t>ZZ1228_RB103_FP-CP</t>
-  </si>
-  <si>
     <t>Outward HSN_1</t>
   </si>
   <si>
@@ -3477,6 +3459,54 @@
   </si>
   <si>
     <t>JournalNo</t>
+  </si>
+  <si>
+    <t>107769</t>
+  </si>
+  <si>
+    <t>Global Client Number</t>
+  </si>
+  <si>
+    <t>Global Brand Number</t>
+  </si>
+  <si>
+    <t>Global Product Number</t>
+  </si>
+  <si>
+    <t>107769001</t>
+  </si>
+  <si>
+    <t>107769001001</t>
+  </si>
+  <si>
+    <t>RB109-Digital</t>
+  </si>
+  <si>
+    <t>D113-Digital</t>
+  </si>
+  <si>
+    <t>RB109_T&amp;M CP</t>
+  </si>
+  <si>
+    <t>Digital-T&amp;M - CP</t>
+  </si>
+  <si>
+    <t>ValidateJobtype_CB(Client Billable)</t>
+  </si>
+  <si>
+    <t>B205-General</t>
+  </si>
+  <si>
+    <t>1517101144</t>
+  </si>
+  <si>
+    <t>E1001</t>
+  </si>
+  <si>
+    <t>3D Models</t>
+  </si>
+  <si>
+    <t>E1005</t>
   </si>
 </sst>
 </file>
@@ -4257,7 +4287,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4286,7 +4316,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1099</v>
+        <v>1046</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -5029,7 +5059,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5045,7 +5075,7 @@
         <v>216</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5069,7 +5099,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5077,7 +5107,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5986,7 +6016,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6107,7 +6137,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6131,7 +6161,7 @@
         <v>216</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6155,7 +6185,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6208,10 +6238,10 @@
         <v>136</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>137</v>
@@ -6226,10 +6256,10 @@
         <v>140</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="O1" s="27" t="s">
         <v>141</v>
@@ -6244,10 +6274,10 @@
         <v>144</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="U1" s="27" t="s">
         <v>145</v>
@@ -6262,10 +6292,10 @@
         <v>148</v>
       </c>
       <c r="Y1" s="27" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="Z1" s="27" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="AA1" s="27" t="s">
         <v>149</v>
@@ -6280,10 +6310,10 @@
         <v>152</v>
       </c>
       <c r="AE1" s="27" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="AG1" s="27" t="s">
         <v>153</v>
@@ -6298,10 +6328,10 @@
         <v>156</v>
       </c>
       <c r="AK1" s="27" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="AM1" s="27" t="s">
         <v>157</v>
@@ -6316,10 +6346,10 @@
         <v>160</v>
       </c>
       <c r="AQ1" s="27" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="AR1" s="27" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="AS1" s="27" t="s">
         <v>161</v>
@@ -6334,10 +6364,10 @@
         <v>164</v>
       </c>
       <c r="AW1" s="27" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="AX1" s="27" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="AY1" s="27" t="s">
         <v>165</v>
@@ -6352,10 +6382,10 @@
         <v>168</v>
       </c>
       <c r="BC1" s="27" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="BD1" s="27" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="BE1" s="27" t="s">
         <v>169</v>
@@ -6370,10 +6400,10 @@
         <v>172</v>
       </c>
       <c r="BI1" s="27" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="BJ1" s="27" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
@@ -6396,7 +6426,7 @@
         <v>238</v>
       </c>
       <c r="H2" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -6422,10 +6452,10 @@
         <v>3000</v>
       </c>
       <c r="G3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="H3" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -6451,10 +6481,10 @@
         <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="H4" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="I4">
         <v>12</v>
@@ -6463,10 +6493,10 @@
         <v>800</v>
       </c>
       <c r="K4" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="L4" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -6488,8 +6518,8 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6502,8 +6532,8 @@
       <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="31">
-        <v>1307</v>
+      <c r="B1" s="31" t="s">
+        <v>1100</v>
       </c>
       <c r="C1" s="31">
         <v>1322</v>
@@ -6574,7 +6604,7 @@
         <v>345</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6709,7 +6739,7 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:EY7"/>
+  <dimension ref="A1:EY10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -6888,6 +6918,9 @@
       <c r="A2" s="30" t="s">
         <v>208</v>
       </c>
+      <c r="B2" s="30" t="s">
+        <v>1140</v>
+      </c>
     </row>
     <row r="3" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -6906,12 +6939,36 @@
     </row>
     <row r="6" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="7" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>836</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
@@ -6962,7 +7019,7 @@
         <v>306</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -7013,7 +7070,7 @@
         <v>306</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -7433,7 +7490,7 @@
         <v>1322</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -7441,7 +7498,7 @@
         <v>1319</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -7449,7 +7506,7 @@
         <v>1228</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="C4" s="93"/>
     </row>
@@ -7487,16 +7544,16 @@
         <v>1307</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7504,7 +7561,7 @@
         <v>302</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="59"/>
@@ -7542,16 +7599,16 @@
         <v>1307</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7559,12 +7616,12 @@
         <v>302</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="59"/>
       <c r="E2" s="59" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F2" s="59"/>
     </row>
@@ -7612,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7701,7 +7758,7 @@
         <v>356</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7905,7 +7962,7 @@
         <v>412</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7913,7 +7970,7 @@
         <v>814</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7921,7 +7978,7 @@
         <v>784</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7929,7 +7986,7 @@
         <v>815</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7937,7 +7994,7 @@
         <v>816</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7945,7 +8002,7 @@
         <v>407</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7953,7 +8010,7 @@
         <v>377</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7961,7 +8018,7 @@
         <v>792</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7969,7 +8026,7 @@
         <v>416</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7977,7 +8034,7 @@
         <v>429</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7985,7 +8042,7 @@
         <v>512</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7993,7 +8050,7 @@
         <v>422</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8001,7 +8058,7 @@
         <v>427</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8009,7 +8066,7 @@
         <v>435</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8017,7 +8074,7 @@
         <v>431</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8025,7 +8082,7 @@
         <v>438</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8033,7 +8090,7 @@
         <v>462</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8041,7 +8098,7 @@
         <v>446</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8049,7 +8106,7 @@
         <v>444</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8057,7 +8114,7 @@
         <v>472</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8065,7 +8122,7 @@
         <v>442</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8073,7 +8130,7 @@
         <v>475</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8081,7 +8138,7 @@
         <v>455</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8097,7 +8154,7 @@
         <v>459</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8105,7 +8162,7 @@
         <v>466</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8113,7 +8170,7 @@
         <v>440</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -8121,7 +8178,7 @@
         <v>464</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -8129,7 +8186,7 @@
         <v>818</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -8137,7 +8194,7 @@
         <v>451</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -8153,7 +8210,7 @@
         <v>500</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -8161,7 +8218,7 @@
         <v>623</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -8169,7 +8226,7 @@
         <v>492</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -8185,7 +8242,7 @@
         <v>496</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -8193,7 +8250,7 @@
         <v>505</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -8201,7 +8258,7 @@
         <v>510</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8209,7 +8266,7 @@
         <v>477</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -8217,7 +8274,7 @@
         <v>515</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -8225,7 +8282,7 @@
         <v>517</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -8233,7 +8290,7 @@
         <v>522</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -8241,7 +8298,7 @@
         <v>418</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -8249,7 +8306,7 @@
         <v>819</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8257,7 +8314,7 @@
         <v>820</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -8265,7 +8322,7 @@
         <v>525</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -8273,7 +8330,7 @@
         <v>534</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -8281,7 +8338,7 @@
         <v>539</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -8289,7 +8346,7 @@
         <v>549</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -8297,7 +8354,7 @@
         <v>552</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -8305,7 +8362,7 @@
         <v>547</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -8313,7 +8370,7 @@
         <v>565</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -8321,7 +8378,7 @@
         <v>561</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -8329,7 +8386,7 @@
         <v>568</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -8337,7 +8394,7 @@
         <v>574</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -8345,7 +8402,7 @@
         <v>572</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -8353,7 +8410,7 @@
         <v>508</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -8361,7 +8418,7 @@
         <v>570</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -8369,7 +8426,7 @@
         <v>576</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -8377,7 +8434,7 @@
         <v>580</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -8385,7 +8442,7 @@
         <v>591</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -8393,7 +8450,7 @@
         <v>405</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -8401,7 +8458,7 @@
         <v>586</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -8409,7 +8466,7 @@
         <v>578</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -8417,7 +8474,7 @@
         <v>594</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -8425,7 +8482,7 @@
         <v>600</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -8433,7 +8490,7 @@
         <v>596</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -8441,7 +8498,7 @@
         <v>604</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -8449,7 +8506,7 @@
         <v>610</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -8457,7 +8514,7 @@
         <v>479</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -8465,7 +8522,7 @@
         <v>498</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -8473,7 +8530,7 @@
         <v>748</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -8481,7 +8538,7 @@
         <v>608</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -8489,7 +8546,7 @@
         <v>486</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -8497,7 +8554,7 @@
         <v>602</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -8505,7 +8562,7 @@
         <v>612</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -8513,7 +8570,7 @@
         <v>615</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -8521,7 +8578,7 @@
         <v>752</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -8529,7 +8586,7 @@
         <v>821</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -8537,7 +8594,7 @@
         <v>822</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -8545,7 +8602,7 @@
         <v>621</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -8553,7 +8610,7 @@
         <v>656</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -8561,7 +8618,7 @@
         <v>649</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -8569,7 +8626,7 @@
         <v>629</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -8577,7 +8634,7 @@
         <v>680</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -8585,7 +8642,7 @@
         <v>660</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -8593,7 +8650,7 @@
         <v>652</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -8601,7 +8658,7 @@
         <v>627</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -8609,7 +8666,7 @@
         <v>824</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -8617,7 +8674,7 @@
         <v>643</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -8625,7 +8682,7 @@
         <v>635</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -8633,7 +8690,7 @@
         <v>631</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -8641,7 +8698,7 @@
         <v>646</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -8649,7 +8706,7 @@
         <v>633</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -8657,7 +8714,7 @@
         <v>825</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -8665,7 +8722,7 @@
         <v>658</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -8673,7 +8730,7 @@
         <v>673</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -8681,7 +8738,7 @@
         <v>670</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -8689,7 +8746,7 @@
         <v>682</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -8697,7 +8754,7 @@
         <v>665</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -8705,7 +8762,7 @@
         <v>490</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -8713,7 +8770,7 @@
         <v>684</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -8721,7 +8778,7 @@
         <v>695</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -8729,7 +8786,7 @@
         <v>691</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -8737,7 +8794,7 @@
         <v>697</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -8745,7 +8802,7 @@
         <v>686</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -8753,7 +8810,7 @@
         <v>700</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -8761,7 +8818,7 @@
         <v>693</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -8769,7 +8826,7 @@
         <v>704</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -8777,7 +8834,7 @@
         <v>826</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -8785,7 +8842,7 @@
         <v>707</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -8793,7 +8850,7 @@
         <v>729</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -8801,7 +8858,7 @@
         <v>709</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -8809,7 +8866,7 @@
         <v>711</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -8817,7 +8874,7 @@
         <v>726</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -8833,7 +8890,7 @@
         <v>731</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -8841,7 +8898,7 @@
         <v>759</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -8857,7 +8914,7 @@
         <v>733</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -8865,7 +8922,7 @@
         <v>756</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -8873,7 +8930,7 @@
         <v>828</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -8881,7 +8938,7 @@
         <v>532</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -8889,7 +8946,7 @@
         <v>770</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -8897,7 +8954,7 @@
         <v>766</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -8905,7 +8962,7 @@
         <v>780</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -8913,7 +8970,7 @@
         <v>775</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -8921,7 +8978,7 @@
         <v>782</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -8929,7 +8986,7 @@
         <v>777</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -8937,7 +8994,7 @@
         <v>764</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -8945,7 +9002,7 @@
         <v>768</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -8953,7 +9010,7 @@
         <v>790</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -8961,7 +9018,7 @@
         <v>788</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -8969,7 +9026,7 @@
         <v>794</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -8977,7 +9034,7 @@
         <v>797</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -8985,7 +9042,7 @@
         <v>804</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -8993,7 +9050,7 @@
         <v>799</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -9001,7 +9058,7 @@
         <v>721</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -9009,7 +9066,7 @@
         <v>424</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -9017,7 +9074,7 @@
         <v>453</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -9025,7 +9082,7 @@
         <v>544</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -9033,7 +9090,7 @@
         <v>808</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -9041,7 +9098,7 @@
         <v>745</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -9049,7 +9106,7 @@
         <v>830</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
@@ -9160,7 +9217,7 @@
         <v>323</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>313</v>
@@ -9201,16 +9258,16 @@
         <v>1322</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="E2" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F2" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -9218,16 +9275,16 @@
         <v>1319</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="E3" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="F3" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -9235,16 +9292,16 @@
         <v>1228</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="E4" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="F4" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
@@ -9291,7 +9348,7 @@
         <v>324</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -9329,7 +9386,7 @@
         <v>324</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -9579,7 +9636,7 @@
         <v>379</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9737,7 +9794,7 @@
         <v>385</v>
       </c>
       <c r="G1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="H1" t="s">
         <v>125</v>
@@ -9746,7 +9803,7 @@
         <v>208</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="K1" t="s">
         <v>386</v>
@@ -9763,7 +9820,7 @@
         <v>387</v>
       </c>
       <c r="D2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E2" t="s">
         <v>388</v>
@@ -9775,13 +9832,13 @@
         <v>111398</v>
       </c>
       <c r="H2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="I2">
         <v>1307200433</v>
       </c>
       <c r="J2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="K2">
         <v>1000</v>
@@ -12192,7 +12249,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12214,39 +12271,39 @@
         <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="B3" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="B4" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12262,23 +12319,23 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12291,18 +12348,18 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="B12" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="B13" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12310,36 +12367,36 @@
         <v>309</v>
       </c>
       <c r="B14" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="B15" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="B16" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="B18">
         <v>15179905</v>
@@ -12350,39 +12407,39 @@
         <v>310</v>
       </c>
       <c r="B19" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="B20" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="B21" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="B22" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="B23" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
   </sheetData>
@@ -12417,7 +12474,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12430,33 +12487,33 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="B4" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="B8" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -12492,7 +12549,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12505,44 +12562,44 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B4" s="98"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="B6" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="B10" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -12573,12 +12630,12 @@
         <v>5</v>
       </c>
       <c r="B1" s="94" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12618,12 +12675,12 @@
         <v>5</v>
       </c>
       <c r="B1" s="94" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B2" s="60"/>
     </row>
@@ -12637,13 +12694,13 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B4" s="95"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -12678,52 +12735,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="B1" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="C1" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="D1" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="E1" t="s">
         <v>384</v>
       </c>
       <c r="F1" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="G1" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="H1" t="s">
         <v>133</v>
       </c>
       <c r="I1" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="J1" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="K1" t="s">
         <v>385</v>
       </c>
       <c r="L1" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="M1" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="N1" t="s">
         <v>137</v>
       </c>
       <c r="O1" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="P1" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -12734,19 +12791,19 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="D2" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="E2" t="s">
         <v>389</v>
       </c>
       <c r="G2" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="I2" s="59"/>
       <c r="J2">
@@ -12756,10 +12813,10 @@
         <v>389</v>
       </c>
       <c r="M2" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="O2">
         <v>500</v>
@@ -12778,7 +12835,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -12794,21 +12851,21 @@
         <v>5</v>
       </c>
       <c r="B1" s="103" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="B2" s="101"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="99" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="B3" s="100" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
@@ -12825,7 +12882,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12855,7 +12912,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12874,12 +12931,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>58</v>
+        <v>1138</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>66</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12903,15 +12960,15 @@
         <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>67</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12919,15 +12976,15 @@
         <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>69</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -12935,15 +12992,15 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>127</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -12959,7 +13016,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -12994,7 +13051,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13016,7 +13073,7 @@
         <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13024,7 +13081,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13032,7 +13089,7 @@
         <v>195</v>
       </c>
       <c r="B4" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13040,7 +13097,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -13048,7 +13105,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -13056,7 +13113,7 @@
         <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -13064,7 +13121,7 @@
         <v>198</v>
       </c>
       <c r="B8" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -13072,7 +13129,7 @@
         <v>199</v>
       </c>
       <c r="B9" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -13080,7 +13137,7 @@
         <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13088,7 +13145,7 @@
         <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
@@ -13105,7 +13162,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13128,7 +13185,7 @@
         <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13136,7 +13193,7 @@
         <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13144,7 +13201,7 @@
         <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13152,7 +13209,7 @@
         <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -13160,7 +13217,7 @@
         <v>183</v>
       </c>
       <c r="B6" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -13168,7 +13225,7 @@
         <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -13176,7 +13233,7 @@
         <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -13184,7 +13241,7 @@
         <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -13192,7 +13249,7 @@
         <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -13200,7 +13257,7 @@
         <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -13208,7 +13265,7 @@
         <v>189</v>
       </c>
       <c r="B12" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -13216,7 +13273,7 @@
         <v>190</v>
       </c>
       <c r="B13" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -13224,7 +13281,7 @@
         <v>191</v>
       </c>
       <c r="B14" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13232,7 +13289,7 @@
         <v>193</v>
       </c>
       <c r="B15" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
   </sheetData>
@@ -13298,7 +13355,7 @@
         <v>204</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13320,7 +13377,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -13408,7 +13465,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -13419,7 +13476,7 @@
         <v>127</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -13438,7 +13495,7 @@
         <v>206</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C17" s="48" t="s">
         <v>207</v>
@@ -13455,51 +13512,50 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>75</v>
       </c>
@@ -13507,165 +13563,169 @@
         <v>208</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>831</v>
+        <v>133</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R1" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y1" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AB1" s="27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AC1" s="27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AD1" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AE1" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH1" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AI1" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AJ1" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AK1" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN1" s="27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AO1" s="27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AP1" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="AQ1" s="27" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="91">
-        <v>1307</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>842</v>
-      </c>
+        <v>1517</v>
+      </c>
+      <c r="B2" s="59"/>
       <c r="C2" t="s">
-        <v>832</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
         <v>173</v>
       </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
       <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
         <v>1000</v>
       </c>
+      <c r="G2" t="s">
+        <v>1141</v>
+      </c>
       <c r="H2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I2" t="s">
-        <v>175</v>
+        <v>1142</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
         <v>1500</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L2" t="s">
+        <v>841</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1322</v>
       </c>
@@ -13673,106 +13733,97 @@
         <v>1322200121</v>
       </c>
       <c r="C3" t="s">
-        <v>870</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
         <v>173</v>
       </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
       <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
         <v>1000</v>
       </c>
+      <c r="G3" t="s">
+        <v>238</v>
+      </c>
       <c r="H3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" t="s">
-        <v>877</v>
+        <v>873</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1319</v>
       </c>
       <c r="C4" t="s">
-        <v>1016</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" t="s">
         <v>173</v>
       </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
       <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
         <v>3000</v>
       </c>
+      <c r="G4" t="s">
+        <v>866</v>
+      </c>
       <c r="H4" t="s">
-        <v>869</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1015</v>
+        <v>1011</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1228</v>
       </c>
       <c r="C5" t="s">
-        <v>1020</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" t="s">
         <v>173</v>
       </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
       <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
         <v>1000</v>
       </c>
+      <c r="G5" t="s">
+        <v>1038</v>
+      </c>
       <c r="H5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1017</v>
+        <v>1012</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
       </c>
       <c r="J5">
-        <v>12</v>
-      </c>
-      <c r="K5">
         <v>800</v>
       </c>
+      <c r="K5" t="s">
+        <v>1013</v>
+      </c>
       <c r="L5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1019</v>
+        <v>1014</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
       </c>
       <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
         <v>1500</v>
       </c>
     </row>
@@ -13983,13 +14034,13 @@
         <v>196</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E2" t="s">
         <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G2" t="s">
         <v>116</v>
@@ -13998,10 +14049,10 @@
         <v>1000</v>
       </c>
       <c r="I2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="J2" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="K2" t="s">
         <v>116</v>
@@ -14050,7 +14101,7 @@
         <v>1307</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14065,10 +14116,10 @@
         <v>124</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
@@ -3497,9 +3497,6 @@
     <t>B205-General</t>
   </si>
   <si>
-    <t>1517101144</t>
-  </si>
-  <si>
     <t>E1001</t>
   </si>
   <si>
@@ -3507,6 +3504,9 @@
   </si>
   <si>
     <t>E1005</t>
+  </si>
+  <si>
+    <t>1517101146</t>
   </si>
 </sst>
 </file>
@@ -6919,7 +6919,7 @@
         <v>208</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="3" spans="1:155" x14ac:dyDescent="0.25">
@@ -13701,10 +13701,10 @@
         <v>1000</v>
       </c>
       <c r="G2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H2" t="s">
         <v>1141</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1142</v>
       </c>
       <c r="I2">
         <v>7</v>
@@ -13713,7 +13713,7 @@
         <v>1500</v>
       </c>
       <c r="K2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="L2" t="s">
         <v>841</v>

--- a/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegPack\TestResource\Regression\"/>
     </mc:Choice>
@@ -66,7 +66,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="1145">
   <si>
     <t>Description</t>
   </si>
@@ -3507,12 +3507,16 @@
   </si>
   <si>
     <t>1517101146</t>
+  </si>
+  <si>
+    <t>1517101149</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4292,8 +4296,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="2" max="9" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4363,16 +4367,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.140625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="57.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.7109375" style="30" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="30" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="31.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="60.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="59.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="51.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="30" width="51.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="30" width="58.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="30" width="57.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="30" width="63.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="30" width="45.28515625" collapsed="true"/>
+    <col min="10" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5041,9 +5045,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="30" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="30" width="23.140625" collapsed="true"/>
+    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5140,11 +5144,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="87.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="69.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="68.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="67.42578125" collapsed="true"/>
+    <col min="4" max="9" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="69.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5991,8 +5995,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="31.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="60.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6121,7 +6125,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6213,9 +6217,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -6524,8 +6528,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6587,8 +6591,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6634,11 +6638,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6700,8 +6704,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6747,10 +6751,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="30" customWidth="1"/>
-    <col min="3" max="155" width="32" style="30" customWidth="1"/>
-    <col min="156" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="23.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="30" width="27.85546875" collapsed="true"/>
+    <col min="3" max="155" customWidth="true" style="30" width="32.0" collapsed="true"/>
+    <col min="156" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" x14ac:dyDescent="0.25">
@@ -6918,8 +6922,8 @@
       <c r="A2" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>1143</v>
+      <c r="B2" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="3" spans="1:155" x14ac:dyDescent="0.25">
@@ -6990,8 +6994,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7041,8 +7045,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7092,48 +7096,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -7319,39 +7323,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -7532,8 +7536,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7587,8 +7591,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7644,8 +7648,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7731,10 +7735,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="22.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="12.42578125" collapsed="true"/>
+    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7804,8 +7808,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7875,8 +7879,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7946,7 +7950,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9128,8 +9132,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9199,11 +9203,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="7" max="15" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -9323,7 +9327,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9370,7 +9374,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9408,8 +9412,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9463,9 +9467,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="24.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9543,9 +9547,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9619,8 +9623,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9674,13 +9678,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="30"/>
-    <col min="3" max="3" width="11.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="30"/>
-    <col min="9" max="9" width="16" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="16.42578125" collapsed="true"/>
+    <col min="2" max="2" style="30" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
+    <col min="4" max="8" style="30" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="30" width="16.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="30" width="27.5703125" collapsed="true"/>
+    <col min="11" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9766,12 +9770,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9863,7 +9867,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11917,9 +11921,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="15.28515625" collapsed="true"/>
+    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11997,8 +12001,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12068,11 +12072,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -12254,8 +12258,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12461,7 +12465,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12535,8 +12539,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12621,8 +12625,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="14.140625" collapsed="true"/>
+    <col min="2" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12665,9 +12669,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="10.0" collapsed="true"/>
+    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12722,15 +12726,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -12841,9 +12845,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" style="99" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="99"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="99" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="99" width="35.0" collapsed="true"/>
+    <col min="3" max="16384" style="99" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12887,8 +12891,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13056,8 +13060,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13167,9 +13171,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13311,10 +13315,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" customWidth="true" style="49" width="30.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="49" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -13520,39 +13524,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -13846,47 +13850,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -14088,9 +14092,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegPack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Documents\Results\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -25,48 +25,51 @@
     <sheet name="UserCreation" sheetId="6" r:id="rId11"/>
     <sheet name="EmployeeAsUser" sheetId="7" r:id="rId12"/>
     <sheet name="ChangeEmployee" sheetId="25" r:id="rId13"/>
-    <sheet name="ChangeUser" sheetId="43" r:id="rId14"/>
-    <sheet name="Modify budget" sheetId="32" r:id="rId15"/>
-    <sheet name="CreateQuote" sheetId="16" r:id="rId16"/>
-    <sheet name="Approve Expenses Sheet Opco" sheetId="29" r:id="rId17"/>
-    <sheet name="Approve Expenses Sheet SSC" sheetId="30" r:id="rId18"/>
-    <sheet name="Reject Expenses" sheetId="31" r:id="rId19"/>
-    <sheet name="ApproveTimesheet" sheetId="17" r:id="rId20"/>
-    <sheet name="RejectTimesheet" sheetId="18" r:id="rId21"/>
-    <sheet name="FixedAssetPurchaseOrder" sheetId="19" r:id="rId22"/>
-    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId23"/>
-    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId24"/>
-    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId25"/>
-    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId26"/>
-    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId27"/>
-    <sheet name="FixedAssetVal" sheetId="26" r:id="rId28"/>
-    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId29"/>
-    <sheet name="PostEntries" sheetId="28" r:id="rId30"/>
-    <sheet name="VendorInvoice" sheetId="22" r:id="rId31"/>
-    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId32"/>
-    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId33"/>
-    <sheet name="PostVendorJournal" sheetId="44" r:id="rId34"/>
-    <sheet name="AR Single Payment" sheetId="35" r:id="rId35"/>
-    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId36"/>
-    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId37"/>
-    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId38"/>
-    <sheet name="Writingoffbad" sheetId="39" r:id="rId39"/>
-    <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId40"/>
-    <sheet name="Reverse Invoice" sheetId="41" r:id="rId41"/>
-    <sheet name="Credit Note With PO" sheetId="42" r:id="rId42"/>
-    <sheet name="CreateClient" sheetId="49" r:id="rId43"/>
-    <sheet name="AmendGlobalClient" sheetId="50" r:id="rId44"/>
-    <sheet name="AmendGlobalBrand" sheetId="51" r:id="rId45"/>
-    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId46"/>
-    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId47"/>
-    <sheet name="CreateGeneralJournal" sheetId="52" r:id="rId48"/>
-    <sheet name="ReverseGL" sheetId="53" r:id="rId49"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId50"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId51"/>
+    <sheet name="ReallocateJobEntries" sheetId="54" r:id="rId14"/>
+    <sheet name="JobClosure" sheetId="55" r:id="rId15"/>
+    <sheet name="BlockUser" sheetId="56" r:id="rId16"/>
+    <sheet name="ChangeUser" sheetId="43" r:id="rId17"/>
+    <sheet name="Modify budget" sheetId="32" r:id="rId18"/>
+    <sheet name="CreateQuote" sheetId="16" r:id="rId19"/>
+    <sheet name="Approve Expenses Sheet Opco" sheetId="29" r:id="rId20"/>
+    <sheet name="Approve Expenses Sheet SSC" sheetId="30" r:id="rId21"/>
+    <sheet name="Reject Expenses" sheetId="31" r:id="rId22"/>
+    <sheet name="ApproveTimesheet" sheetId="17" r:id="rId23"/>
+    <sheet name="RejectTimesheet" sheetId="18" r:id="rId24"/>
+    <sheet name="FixedAssetPurchaseOrder" sheetId="19" r:id="rId25"/>
+    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId26"/>
+    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId27"/>
+    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId28"/>
+    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId29"/>
+    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId30"/>
+    <sheet name="FixedAssetVal" sheetId="26" r:id="rId31"/>
+    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId32"/>
+    <sheet name="PostEntries" sheetId="28" r:id="rId33"/>
+    <sheet name="VendorInvoice" sheetId="22" r:id="rId34"/>
+    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId35"/>
+    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId36"/>
+    <sheet name="PostVendorJournal" sheetId="44" r:id="rId37"/>
+    <sheet name="AR Single Payment" sheetId="35" r:id="rId38"/>
+    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId39"/>
+    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId40"/>
+    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId41"/>
+    <sheet name="Writingoffbad" sheetId="39" r:id="rId42"/>
+    <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId43"/>
+    <sheet name="Reverse Invoice" sheetId="41" r:id="rId44"/>
+    <sheet name="Credit Note With PO" sheetId="42" r:id="rId45"/>
+    <sheet name="CreateClient" sheetId="49" r:id="rId46"/>
+    <sheet name="AmendGlobalClient" sheetId="50" r:id="rId47"/>
+    <sheet name="AmendGlobalBrand" sheetId="51" r:id="rId48"/>
+    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId49"/>
+    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId50"/>
+    <sheet name="CreateGeneralJournal" sheetId="52" r:id="rId51"/>
+    <sheet name="ReverseGL" sheetId="53" r:id="rId52"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId53"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId54"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -74,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="1157">
   <si>
     <t>Description</t>
   </si>
@@ -3506,17 +3509,52 @@
     <t>E1005</t>
   </si>
   <si>
-    <t>1517101146</t>
-  </si>
-  <si>
     <t>1517101149</t>
+  </si>
+  <si>
+    <t>1216-Grey Shopper DPI Limited</t>
+  </si>
+  <si>
+    <t>1289-Red Wasabi Marketing Consulting (Shanghai) Co. Ltd</t>
+  </si>
+  <si>
+    <t>RJ_Autom_01</t>
+  </si>
+  <si>
+    <t>1201_TestAutomationJob</t>
+  </si>
+  <si>
+    <t>1216-Retainer Auto Job</t>
+  </si>
+  <si>
+    <t>1289-FPCP job</t>
+  </si>
+  <si>
+    <t>1307200405</t>
+  </si>
+  <si>
+    <t>NewJob_No</t>
+  </si>
+  <si>
+    <t>1307200406</t>
+  </si>
+  <si>
+    <t>1307_TestAutomationJob 14October2019 13:53:34</t>
+  </si>
+  <si>
+    <t>1307_AutomationUser 18October2019 15:21:12</t>
+  </si>
+  <si>
+    <t>11/30/2019</t>
+  </si>
+  <si>
+    <t>1307_TestEmployeeAutomation 11October2019 11:26:39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3803,7 +3841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4004,6 +4042,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4296,8 +4352,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="2" max="9" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="9" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4367,16 +4423,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="60.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="59.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="51.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="30" width="51.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="30" width="58.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="30" width="57.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="30" width="63.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="30" width="45.28515625" collapsed="true"/>
-    <col min="10" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="59.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="51" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="58.140625" style="30" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="57.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.7109375" style="30" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="45.28515625" style="30" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5045,9 +5101,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="30" width="23.140625" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" style="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5144,11 +5200,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="68.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="67.42578125" collapsed="true"/>
-    <col min="4" max="9" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="69.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="67.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="69.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5995,8 +6051,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="60.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6115,6 +6171,331 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1307</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1201</v>
+      </c>
+      <c r="D1" s="104">
+        <v>1216</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1307</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1201</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1216</v>
+      </c>
+      <c r="E2" s="105">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="108" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="108" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1307</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1201</v>
+      </c>
+      <c r="D1" s="104">
+        <v>1216</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1307</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1201</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1216</v>
+      </c>
+      <c r="E2" s="105">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="50">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="51">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="51">
+        <v>130710080</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="51">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:B9"/>
@@ -6125,7 +6506,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6204,7 +6585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6217,9 +6598,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -6507,182 +6888,6 @@
       </c>
       <c r="N4">
         <v>1500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C1" s="31">
-        <v>1322</v>
-      </c>
-      <c r="D1" s="31">
-        <v>1319</v>
-      </c>
-      <c r="E1" s="31">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="60"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>346</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1307</v>
-      </c>
-      <c r="B2">
-        <v>1307</v>
-      </c>
-      <c r="C2">
-        <v>1307700041</v>
-      </c>
-      <c r="D2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2" t="s">
-        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -6696,40 +6901,56 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="31">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="B3">
-        <v>1307700044</v>
+      <c r="B1" s="31" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C1" s="31">
+        <v>1322</v>
+      </c>
+      <c r="D1" s="31">
+        <v>1319</v>
+      </c>
+      <c r="E1" s="31">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="60"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6751,10 +6972,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="23.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="30" width="27.85546875" collapsed="true"/>
-    <col min="3" max="155" customWidth="true" style="30" width="32.0" collapsed="true"/>
-    <col min="156" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.85546875" style="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="155" width="32" style="30" customWidth="1" collapsed="1"/>
+    <col min="156" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" x14ac:dyDescent="0.25">
@@ -6923,7 +7144,7 @@
         <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="3" spans="1:155" x14ac:dyDescent="0.25">
@@ -6982,6 +7203,166 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1307</v>
+      </c>
+      <c r="B2">
+        <v>1307</v>
+      </c>
+      <c r="C2">
+        <v>1307700041</v>
+      </c>
+      <c r="D2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="31">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3">
+        <v>1307700044</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6994,8 +7375,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7032,7 +7413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7045,8 +7426,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7083,7 +7464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7096,48 +7477,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -7310,7 +7691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7323,39 +7704,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -7523,7 +7904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7536,8 +7917,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7578,7 +7959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7591,8 +7972,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7635,7 +8016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7648,8 +8029,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7714,221 +8095,6 @@
       </c>
       <c r="B8" t="s">
         <v>364</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="22.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="12.42578125" collapsed="true"/>
-    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1307</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
-        <v>333</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
-        <v>335</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>336</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>337</v>
-      </c>
-      <c r="B3" s="85" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="B4" s="77" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>342</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -7950,7 +8116,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="12.0" collapsed="true"/>
+    <col min="2" max="2" width="12" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9127,61 +9293,63 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.5703125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="80" t="s">
-        <v>74</v>
+      <c r="A1" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1">
+        <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" s="86" t="s">
-        <v>74</v>
+      <c r="A2" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>329</v>
-      </c>
-      <c r="B3" s="86" t="s">
-        <v>330</v>
+      <c r="A3" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>331</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>332</v>
+      <c r="A4" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>333</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="83" t="s">
+      <c r="A5" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="B6" s="84" t="s">
-        <v>336</v>
+      <c r="B5" s="30" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1307</v>
       </c>
     </row>
   </sheetData>
@@ -9191,6 +9359,219 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="83" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9203,11 +9584,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="7" max="15" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="15" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -9314,7 +9695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9327,7 +9708,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9361,7 +9742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9374,7 +9755,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9391,217 +9772,6 @@
       </c>
       <c r="B2" s="59" t="s">
         <v>836</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>404</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="24.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>369</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="30">
-        <v>1307</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>381</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -9618,45 +9788,45 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1">
+      <c r="A1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
         <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30">
-        <v>1307</v>
+      <c r="B3" s="59" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>380</v>
+      <c r="A4" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -9670,85 +9840,73 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="16.42578125" collapsed="true"/>
-    <col min="2" max="2" style="30" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="4" max="8" style="30" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="30" width="16.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="30" width="27.5703125" collapsed="true"/>
-    <col min="11" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>180</v>
       </c>
       <c r="B2" s="30">
         <v>1307</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="F2" s="30" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>369</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>377</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -9762,23 +9920,20 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>311</v>
       </c>
@@ -9786,66 +9941,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>383</v>
+        <v>208</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G1" t="s">
-        <v>849</v>
-      </c>
-      <c r="H1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>850</v>
-      </c>
-      <c r="K1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E1" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D2" t="s">
-        <v>851</v>
-      </c>
-      <c r="E2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G2">
-        <v>111398</v>
-      </c>
-      <c r="H2" t="s">
-        <v>852</v>
-      </c>
-      <c r="I2">
-        <v>1307200433</v>
-      </c>
-      <c r="J2" t="s">
-        <v>853</v>
-      </c>
-      <c r="K2">
-        <v>1000</v>
+        <v>180</v>
+      </c>
+      <c r="B2" s="30">
+        <v>1307</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -9867,7 +10004,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11909,6 +12046,250 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="30" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="8" width="9.140625" style="30" collapsed="1"/>
+    <col min="9" max="9" width="16" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.5703125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="30" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="30">
+        <v>1307</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G1" t="s">
+        <v>849</v>
+      </c>
+      <c r="H1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="K1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" t="s">
+        <v>851</v>
+      </c>
+      <c r="E2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G2">
+        <v>111398</v>
+      </c>
+      <c r="H2" t="s">
+        <v>852</v>
+      </c>
+      <c r="I2">
+        <v>1307200433</v>
+      </c>
+      <c r="J2" t="s">
+        <v>853</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -11921,9 +12302,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="15.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11988,7 +12369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -12001,8 +12382,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12059,7 +12440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -12072,11 +12453,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -12245,7 +12626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12258,8 +12639,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12452,7 +12833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12465,7 +12846,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12526,7 +12907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12539,8 +12920,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12604,226 +12985,6 @@
       </c>
       <c r="B10" t="s">
         <v>1068</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="14.140625" collapsed="true"/>
-    <col min="2" max="16384" style="30" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="94" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="B3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B4:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="10.0" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="94" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>870</v>
-      </c>
-      <c r="B2" s="60"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="B3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>871</v>
-      </c>
-      <c r="B4" s="95"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>872</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="H1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="K1" t="s">
-        <v>385</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="N1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1517</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>1118</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2">
-        <v>500</v>
-      </c>
-      <c r="K2" t="s">
-        <v>389</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="N2" s="59" t="s">
-        <v>1119</v>
-      </c>
-      <c r="O2">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -12840,41 +13001,39 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="99" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="99" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="99" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="94" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B2" s="101"/>
+      <c r="A2" s="30" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B3" s="100" t="s">
-        <v>1125</v>
+      <c r="A3" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" t="s">
+        <v>735</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12891,8 +13050,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13048,6 +13207,228 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B4:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>870</v>
+      </c>
+      <c r="B2" s="60"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>871</v>
+      </c>
+      <c r="B4" s="95"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>872</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="N1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1517</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2">
+        <v>500</v>
+      </c>
+      <c r="K2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>1119</v>
+      </c>
+      <c r="O2">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="99" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="99" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="99" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B2" s="101"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="99" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -13060,8 +13441,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13158,12 +13539,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -13171,9 +13552,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13315,10 +13696,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="49" width="30.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="49" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.140625" style="49" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="49" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -13524,39 +13905,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -13850,47 +14231,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -14092,9 +14473,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Documents\Results\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\SIT-W1_Datasheets\New folder\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="12" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="20" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -25,47 +25,44 @@
     <sheet name="UserCreation" sheetId="6" r:id="rId11"/>
     <sheet name="EmployeeAsUser" sheetId="7" r:id="rId12"/>
     <sheet name="ChangeEmployee" sheetId="25" r:id="rId13"/>
-    <sheet name="ReallocateJobEntries" sheetId="54" r:id="rId14"/>
-    <sheet name="JobClosure" sheetId="55" r:id="rId15"/>
-    <sheet name="BlockUser" sheetId="56" r:id="rId16"/>
-    <sheet name="ChangeUser" sheetId="43" r:id="rId17"/>
-    <sheet name="Modify budget" sheetId="32" r:id="rId18"/>
-    <sheet name="CreateQuote" sheetId="16" r:id="rId19"/>
-    <sheet name="Approve Expenses Sheet Opco" sheetId="29" r:id="rId20"/>
-    <sheet name="Approve Expenses Sheet SSC" sheetId="30" r:id="rId21"/>
-    <sheet name="Reject Expenses" sheetId="31" r:id="rId22"/>
-    <sheet name="ApproveTimesheet" sheetId="17" r:id="rId23"/>
-    <sheet name="RejectTimesheet" sheetId="18" r:id="rId24"/>
-    <sheet name="FixedAssetPurchaseOrder" sheetId="19" r:id="rId25"/>
-    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId26"/>
-    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId27"/>
-    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId28"/>
-    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId29"/>
-    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId30"/>
-    <sheet name="FixedAssetVal" sheetId="26" r:id="rId31"/>
-    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId32"/>
-    <sheet name="PostEntries" sheetId="28" r:id="rId33"/>
-    <sheet name="VendorInvoice" sheetId="22" r:id="rId34"/>
-    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId35"/>
-    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId36"/>
-    <sheet name="PostVendorJournal" sheetId="44" r:id="rId37"/>
-    <sheet name="AR Single Payment" sheetId="35" r:id="rId38"/>
-    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId39"/>
-    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId40"/>
-    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId41"/>
-    <sheet name="Writingoffbad" sheetId="39" r:id="rId42"/>
-    <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId43"/>
-    <sheet name="Reverse Invoice" sheetId="41" r:id="rId44"/>
-    <sheet name="Credit Note With PO" sheetId="42" r:id="rId45"/>
-    <sheet name="CreateClient" sheetId="49" r:id="rId46"/>
-    <sheet name="AmendGlobalClient" sheetId="50" r:id="rId47"/>
-    <sheet name="AmendGlobalBrand" sheetId="51" r:id="rId48"/>
-    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId49"/>
-    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId50"/>
-    <sheet name="CreateGeneralJournal" sheetId="52" r:id="rId51"/>
-    <sheet name="ReverseGL" sheetId="53" r:id="rId52"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId53"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId54"/>
+    <sheet name="ChangeUser" sheetId="43" r:id="rId14"/>
+    <sheet name="Modify budget" sheetId="32" r:id="rId15"/>
+    <sheet name="CreateQuote" sheetId="16" r:id="rId16"/>
+    <sheet name="Approve Expenses Sheet Opco" sheetId="29" r:id="rId17"/>
+    <sheet name="Approve Expenses Sheet SSC" sheetId="30" r:id="rId18"/>
+    <sheet name="Reject Expenses" sheetId="31" r:id="rId19"/>
+    <sheet name="ApproveTimesheet" sheetId="17" r:id="rId20"/>
+    <sheet name="RejectTimesheet" sheetId="18" r:id="rId21"/>
+    <sheet name="FixedAssetPurchaseOrder" sheetId="19" r:id="rId22"/>
+    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId23"/>
+    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId24"/>
+    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId25"/>
+    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId26"/>
+    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId27"/>
+    <sheet name="FixedAssetVal" sheetId="26" r:id="rId28"/>
+    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId29"/>
+    <sheet name="PostEntries" sheetId="28" r:id="rId30"/>
+    <sheet name="VendorInvoice" sheetId="22" r:id="rId31"/>
+    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId32"/>
+    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId33"/>
+    <sheet name="PostVendorJournal" sheetId="44" r:id="rId34"/>
+    <sheet name="AR Single Payment" sheetId="35" r:id="rId35"/>
+    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId36"/>
+    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId37"/>
+    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId38"/>
+    <sheet name="Writingoffbad" sheetId="39" r:id="rId39"/>
+    <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId40"/>
+    <sheet name="Reverse Invoice" sheetId="41" r:id="rId41"/>
+    <sheet name="Credit Note With PO" sheetId="42" r:id="rId42"/>
+    <sheet name="CreateClient" sheetId="49" r:id="rId43"/>
+    <sheet name="AmendGlobalClient" sheetId="50" r:id="rId44"/>
+    <sheet name="AmendGlobalBrand" sheetId="51" r:id="rId45"/>
+    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId46"/>
+    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId47"/>
+    <sheet name="CreateGeneralJournal" sheetId="52" r:id="rId48"/>
+    <sheet name="ReverseGL" sheetId="53" r:id="rId49"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId50"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId51"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -77,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="1145">
   <si>
     <t>Description</t>
   </si>
@@ -3512,43 +3509,7 @@
     <t>1517101149</t>
   </si>
   <si>
-    <t>1216-Grey Shopper DPI Limited</t>
-  </si>
-  <si>
-    <t>1289-Red Wasabi Marketing Consulting (Shanghai) Co. Ltd</t>
-  </si>
-  <si>
-    <t>RJ_Autom_01</t>
-  </si>
-  <si>
-    <t>1201_TestAutomationJob</t>
-  </si>
-  <si>
-    <t>1216-Retainer Auto Job</t>
-  </si>
-  <si>
-    <t>1289-FPCP job</t>
-  </si>
-  <si>
-    <t>1307200405</t>
-  </si>
-  <si>
-    <t>NewJob_No</t>
-  </si>
-  <si>
-    <t>1307200406</t>
-  </si>
-  <si>
-    <t>1307_TestAutomationJob 14October2019 13:53:34</t>
-  </si>
-  <si>
-    <t>1307_AutomationUser 18October2019 15:21:12</t>
-  </si>
-  <si>
-    <t>11/30/2019</t>
-  </si>
-  <si>
-    <t>1307_TestEmployeeAutomation 11October2019 11:26:39</t>
+    <t>Number of Lines To ADD</t>
   </si>
 </sst>
 </file>
@@ -3841,7 +3802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4042,24 +4003,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6171,331 +6114,6 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="7"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1307</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1201</v>
-      </c>
-      <c r="D1" s="104">
-        <v>1216</v>
-      </c>
-      <c r="E1" s="2">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1307</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1201</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1216</v>
-      </c>
-      <c r="E2" s="105">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="108" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7"/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1307</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1201</v>
-      </c>
-      <c r="D1" s="104">
-        <v>1216</v>
-      </c>
-      <c r="E1" s="2">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1307</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1201</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1216</v>
-      </c>
-      <c r="E2" s="105">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="50">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="109" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="51">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" s="51">
-        <v>130710080</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="51">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:B9"/>
@@ -6585,7 +6203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6896,7 +6514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6951,6 +6569,166 @@
       </c>
       <c r="E3">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1307</v>
+      </c>
+      <c r="B2">
+        <v>1307</v>
+      </c>
+      <c r="C2">
+        <v>1307700041</v>
+      </c>
+      <c r="D2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="31">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3">
+        <v>1307700044</v>
       </c>
     </row>
   </sheetData>
@@ -7207,166 +6985,6 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>346</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1307</v>
-      </c>
-      <c r="B2">
-        <v>1307</v>
-      </c>
-      <c r="C2">
-        <v>1307700041</v>
-      </c>
-      <c r="D2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="31">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="B3">
-        <v>1307700044</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7413,7 +7031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7464,7 +7082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7691,55 +7309,56 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>75</v>
       </c>
@@ -7750,127 +7369,130 @@
         <v>208</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="P1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="U1" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="V1" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="W1" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="Y1" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AF1" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AG1" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AH1" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AI1" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AK1" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="AL1" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AM1" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="AM1" s="27" t="s">
+      <c r="AN1" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="AN1" s="27" t="s">
+      <c r="AO1" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="AO1" s="27" t="s">
+      <c r="AP1" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="AP1" s="27" t="s">
+      <c r="AQ1" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="AQ1" s="27" t="s">
+      <c r="AR1" s="27" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1322</v>
       </c>
@@ -7878,7 +7500,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1319</v>
       </c>
@@ -7886,7 +7508,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1228</v>
       </c>
@@ -7894,9 +7516,11 @@
         <v>1036</v>
       </c>
       <c r="C4" s="93"/>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="D4" s="93"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7904,7 +7528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7959,7 +7583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -8016,7 +7640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -8095,6 +7719,221 @@
       </c>
       <c r="B8" t="s">
         <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.5703125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -9293,221 +9132,6 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.5703125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1307</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
-        <v>333</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
-        <v>335</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>336</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>337</v>
-      </c>
-      <c r="B3" s="85" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="B4" s="77" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>342</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>343</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -9571,7 +9195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9695,7 +9319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9742,7 +9366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9780,7 +9404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9835,7 +9459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9915,7 +9539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9983,6 +9607,250 @@
       </c>
       <c r="H2" s="30" t="s">
         <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="30" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="8" width="9.140625" style="30" collapsed="1"/>
+    <col min="9" max="9" width="16" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.5703125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="30" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="30">
+        <v>1307</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G1" t="s">
+        <v>849</v>
+      </c>
+      <c r="H1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="K1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" t="s">
+        <v>851</v>
+      </c>
+      <c r="E2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G2">
+        <v>111398</v>
+      </c>
+      <c r="H2" t="s">
+        <v>852</v>
+      </c>
+      <c r="I2">
+        <v>1307200433</v>
+      </c>
+      <c r="J2" t="s">
+        <v>853</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -12050,250 +11918,6 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="30" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="8" width="9.140625" style="30" collapsed="1"/>
-    <col min="9" max="9" width="16" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.5703125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="30" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="30">
-        <v>1307</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>377</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G1" t="s">
-        <v>849</v>
-      </c>
-      <c r="H1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>850</v>
-      </c>
-      <c r="K1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D2" t="s">
-        <v>851</v>
-      </c>
-      <c r="E2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G2">
-        <v>111398</v>
-      </c>
-      <c r="H2" t="s">
-        <v>852</v>
-      </c>
-      <c r="I2">
-        <v>1307200433</v>
-      </c>
-      <c r="J2" t="s">
-        <v>853</v>
-      </c>
-      <c r="K2">
-        <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12369,7 +11993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -12440,7 +12064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -12626,7 +12250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12833,7 +12457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12907,7 +12531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12993,7 +12617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13037,176 +12661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="B17" s="73"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="B18" s="73"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B19" s="73"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13263,7 +12718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -13382,7 +12837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -13428,7 +12883,176 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" s="73"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="73"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" s="73"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -13539,7 +13163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\SIT-W1_Datasheets\New folder\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Documents\Results\Bau_Environment\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="20" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="46" activeTab="49"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -7316,7 +7316,7 @@
   </sheetPr>
   <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -12257,7 +12257,7 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -13059,14 +13059,14 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\IssueFixing\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="46" activeTab="50"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -61,12 +61,14 @@
     <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId47"/>
     <sheet name="CreateGeneralJournal" sheetId="52" r:id="rId48"/>
     <sheet name="ReverseGL" sheetId="53" r:id="rId49"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId50"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId51"/>
+    <sheet name="QuoteMPL" sheetId="54" r:id="rId50"/>
+    <sheet name="InvoiceMPL" sheetId="55" r:id="rId51"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId52"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId53"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -74,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="1121">
   <si>
     <t>Description</t>
   </si>
@@ -3444,7 +3446,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4234,8 +4235,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="9" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="9" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4300,16 +4301,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="60.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="59.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="51.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="30" width="51.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="30" width="58.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="30" width="57.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="30" width="63.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="30" width="45.28515625" collapsed="true"/>
-    <col min="10" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="59.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="51" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="58.140625" style="30" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="57.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.7109375" style="30" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="45.28515625" style="30" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4978,9 +4979,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="30" width="23.140625" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" style="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5077,11 +5078,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="68.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="67.42578125" collapsed="true"/>
-    <col min="4" max="9" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="69.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="67.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="69.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5928,8 +5929,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="60.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6058,7 +6059,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6150,9 +6151,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -6461,8 +6462,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6524,8 +6525,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6555,14 +6556,14 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6606,8 +6607,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6642,10 +6643,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="23.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="30" width="27.85546875" collapsed="true"/>
-    <col min="3" max="155" customWidth="true" style="30" width="32.0" collapsed="true"/>
-    <col min="156" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.85546875" style="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="155" width="32" style="30" customWidth="1" collapsed="1"/>
+    <col min="156" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" x14ac:dyDescent="0.25">
@@ -6888,8 +6889,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6939,8 +6940,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6990,48 +6991,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -7217,40 +7218,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -7436,8 +7437,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7491,8 +7492,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7548,8 +7549,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7635,10 +7636,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="22.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="12.42578125" collapsed="true"/>
-    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.5703125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7708,8 +7709,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7779,8 +7780,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7850,7 +7851,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="12.0" collapsed="true"/>
+    <col min="2" max="2" width="12" style="30" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9032,8 +9033,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9103,11 +9104,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="7" max="15" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="15" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -9227,7 +9228,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9274,7 +9275,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9312,8 +9313,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9367,9 +9368,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="24.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9447,9 +9448,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9523,8 +9524,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="1" max="1" width="13" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9578,13 +9579,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="16.42578125" collapsed="true"/>
-    <col min="2" max="2" style="30" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="11.7109375" collapsed="true"/>
-    <col min="4" max="8" style="30" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="30" width="16.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="30" width="27.5703125" collapsed="true"/>
-    <col min="11" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="30" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="8" width="9.140625" style="30" collapsed="1"/>
+    <col min="9" max="9" width="16" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.5703125" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9670,12 +9671,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9767,7 +9768,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11821,9 +11822,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="15.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11901,8 +11902,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11972,11 +11973,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -12158,8 +12159,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12365,7 +12366,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12439,8 +12440,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12525,8 +12526,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="14.140625" collapsed="true"/>
-    <col min="2" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12569,9 +12570,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="30" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="10.0" collapsed="true"/>
-    <col min="3" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12626,15 +12627,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -12745,9 +12746,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="95" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="95" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="95" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="95" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="95" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="95" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12791,8 +12792,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12948,6 +12949,58 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1517</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1517</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -12960,8 +13013,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13058,7 +13111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -13071,9 +13124,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13215,10 +13268,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="49" width="30.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="49" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="4" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.140625" style="49" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="49" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -13424,39 +13477,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -13750,28 +13803,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -13929,9 +13982,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="30" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="46" activeTab="50"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="49" activeTab="52"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -63,8 +63,10 @@
     <sheet name="ReverseGL" sheetId="53" r:id="rId49"/>
     <sheet name="QuoteMPL" sheetId="54" r:id="rId50"/>
     <sheet name="InvoiceMPL" sheetId="55" r:id="rId51"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId52"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId53"/>
+    <sheet name="CreateAnAccrualJobByJob" sheetId="56" r:id="rId52"/>
+    <sheet name="CreateAnAccrualForAGroupOfJobs" sheetId="57" r:id="rId53"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId54"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId55"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -76,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1149">
   <si>
     <t>Description</t>
   </si>
@@ -3440,6 +3442,90 @@
   </si>
   <si>
     <t>1517701456</t>
+  </si>
+  <si>
+    <t>Job Sheet</t>
+  </si>
+  <si>
+    <t>Budget sheet</t>
+  </si>
+  <si>
+    <t>Quote Sheet</t>
+  </si>
+  <si>
+    <t>PO Sheet</t>
+  </si>
+  <si>
+    <t>Approve PO Sheet</t>
+  </si>
+  <si>
+    <t>WorkCode</t>
+  </si>
+  <si>
+    <t>NoForAccrual</t>
+  </si>
+  <si>
+    <t>EntryDate</t>
+  </si>
+  <si>
+    <t>JobCreation2</t>
+  </si>
+  <si>
+    <t>JobBudgetCreation2</t>
+  </si>
+  <si>
+    <t>CreateQuote2</t>
+  </si>
+  <si>
+    <t>CreatePurchaseOrder2</t>
+  </si>
+  <si>
+    <t>ApprovePurchaseOrder2</t>
+  </si>
+  <si>
+    <t>10/07/2020</t>
+  </si>
+  <si>
+    <t>Job Sheet_2</t>
+  </si>
+  <si>
+    <t>Budget sheet_2</t>
+  </si>
+  <si>
+    <t>Quote Sheet_2</t>
+  </si>
+  <si>
+    <t>PO Sheet_2</t>
+  </si>
+  <si>
+    <t>Approve PO Sheet_2</t>
+  </si>
+  <si>
+    <t>JobCreation3</t>
+  </si>
+  <si>
+    <t>JobBudgetCreation3</t>
+  </si>
+  <si>
+    <t>CreateQuote3</t>
+  </si>
+  <si>
+    <t>CreatePurchaseOrder3</t>
+  </si>
+  <si>
+    <t>ApprovePurchaseOrder3</t>
+  </si>
+  <si>
+    <t>E1171</t>
+  </si>
+  <si>
+    <t>E1580</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10/09/2020</t>
   </si>
 </sst>
 </file>
@@ -12978,7 +13064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13001,6 +13087,229 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1319</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>1139</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1707</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>1143</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>1144</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>1147</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -13111,7 +13420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="49" activeTab="52"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -23,50 +23,51 @@
     <sheet name="CreateTimesheet" sheetId="9" r:id="rId9"/>
     <sheet name="EmployeeCreation" sheetId="5" r:id="rId10"/>
     <sheet name="UserCreation" sheetId="6" r:id="rId11"/>
-    <sheet name="EmployeeAsUser" sheetId="7" r:id="rId12"/>
-    <sheet name="ChangeEmployee" sheetId="25" r:id="rId13"/>
-    <sheet name="ChangeUser" sheetId="43" r:id="rId14"/>
-    <sheet name="Modify budget" sheetId="32" r:id="rId15"/>
-    <sheet name="CreateQuote" sheetId="16" r:id="rId16"/>
-    <sheet name="Approve Expenses Sheet Opco" sheetId="29" r:id="rId17"/>
-    <sheet name="Approve Expenses Sheet SSC" sheetId="30" r:id="rId18"/>
-    <sheet name="Reject Expenses" sheetId="31" r:id="rId19"/>
-    <sheet name="ApproveTimesheet" sheetId="17" r:id="rId20"/>
-    <sheet name="RejectTimesheet" sheetId="18" r:id="rId21"/>
-    <sheet name="FixedAssetPurchaseOrder" sheetId="19" r:id="rId22"/>
-    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId23"/>
-    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId24"/>
-    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId25"/>
-    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId26"/>
-    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId27"/>
-    <sheet name="FixedAssetVal" sheetId="26" r:id="rId28"/>
-    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId29"/>
-    <sheet name="PostEntries" sheetId="28" r:id="rId30"/>
-    <sheet name="VendorInvoice" sheetId="22" r:id="rId31"/>
-    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId32"/>
-    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId33"/>
-    <sheet name="PostVendorJournal" sheetId="44" r:id="rId34"/>
-    <sheet name="AR Single Payment" sheetId="35" r:id="rId35"/>
-    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId36"/>
-    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId37"/>
-    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId38"/>
-    <sheet name="Writingoffbad" sheetId="39" r:id="rId39"/>
-    <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId40"/>
-    <sheet name="Reverse Invoice" sheetId="41" r:id="rId41"/>
-    <sheet name="Credit Note With PO" sheetId="42" r:id="rId42"/>
-    <sheet name="CreateClient" sheetId="49" r:id="rId43"/>
-    <sheet name="AmendGlobalClient" sheetId="50" r:id="rId44"/>
-    <sheet name="AmendGlobalBrand" sheetId="51" r:id="rId45"/>
-    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId46"/>
-    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId47"/>
-    <sheet name="CreateGeneralJournal" sheetId="52" r:id="rId48"/>
-    <sheet name="ReverseGL" sheetId="53" r:id="rId49"/>
-    <sheet name="QuoteMPL" sheetId="54" r:id="rId50"/>
-    <sheet name="InvoiceMPL" sheetId="55" r:id="rId51"/>
-    <sheet name="CreateAnAccrualJobByJob" sheetId="56" r:id="rId52"/>
-    <sheet name="CreateAnAccrualForAGroupOfJobs" sheetId="57" r:id="rId53"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId54"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId55"/>
+    <sheet name="BlockUser" sheetId="58" r:id="rId12"/>
+    <sheet name="EmployeeAsUser" sheetId="7" r:id="rId13"/>
+    <sheet name="ChangeEmployee" sheetId="25" r:id="rId14"/>
+    <sheet name="ChangeUser" sheetId="43" r:id="rId15"/>
+    <sheet name="Modify budget" sheetId="32" r:id="rId16"/>
+    <sheet name="CreateQuote" sheetId="16" r:id="rId17"/>
+    <sheet name="Approve Expenses Sheet Opco" sheetId="29" r:id="rId18"/>
+    <sheet name="Approve Expenses Sheet SSC" sheetId="30" r:id="rId19"/>
+    <sheet name="Reject Expenses" sheetId="31" r:id="rId20"/>
+    <sheet name="ApproveTimesheet" sheetId="17" r:id="rId21"/>
+    <sheet name="RejectTimesheet" sheetId="18" r:id="rId22"/>
+    <sheet name="FixedAssetPurchaseOrder" sheetId="19" r:id="rId23"/>
+    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId24"/>
+    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId25"/>
+    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId26"/>
+    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId27"/>
+    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId28"/>
+    <sheet name="FixedAssetVal" sheetId="26" r:id="rId29"/>
+    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId30"/>
+    <sheet name="PostEntries" sheetId="28" r:id="rId31"/>
+    <sheet name="VendorInvoice" sheetId="22" r:id="rId32"/>
+    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId33"/>
+    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId34"/>
+    <sheet name="PostVendorJournal" sheetId="44" r:id="rId35"/>
+    <sheet name="AR Single Payment" sheetId="35" r:id="rId36"/>
+    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId37"/>
+    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId38"/>
+    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId39"/>
+    <sheet name="Writingoffbad" sheetId="39" r:id="rId40"/>
+    <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId41"/>
+    <sheet name="Reverse Invoice" sheetId="41" r:id="rId42"/>
+    <sheet name="Credit Note With PO" sheetId="42" r:id="rId43"/>
+    <sheet name="CreateClient" sheetId="49" r:id="rId44"/>
+    <sheet name="AmendGlobalClient" sheetId="50" r:id="rId45"/>
+    <sheet name="AmendGlobalBrand" sheetId="51" r:id="rId46"/>
+    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId47"/>
+    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId48"/>
+    <sheet name="CreateGeneralJournal" sheetId="52" r:id="rId49"/>
+    <sheet name="ReverseGL" sheetId="53" r:id="rId50"/>
+    <sheet name="QuoteMPL" sheetId="54" r:id="rId51"/>
+    <sheet name="InvoiceMPL" sheetId="55" r:id="rId52"/>
+    <sheet name="CreateAnAccrualJobByJob" sheetId="56" r:id="rId53"/>
+    <sheet name="CreateAnAccrualForAGroupOfJobs" sheetId="57" r:id="rId54"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId55"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId56"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="1153">
   <si>
     <t>Description</t>
   </si>
@@ -3526,6 +3527,18 @@
   </si>
   <si>
     <t>10/09/2020</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2025AutomationUser</t>
+  </si>
+  <si>
+    <t>TerminationDate</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
   </si>
 </sst>
 </file>
@@ -3831,7 +3844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4029,6 +4042,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5156,6 +5170,53 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
@@ -6002,7 +6063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6132,7 +6193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6224,7 +6285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6535,7 +6596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6598,7 +6659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6635,7 +6696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -6672,42 +6733,6 @@
       </c>
       <c r="C2" t="s">
         <v>1114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -6967,6 +6992,42 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7013,7 +7074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7064,7 +7125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7291,7 +7352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7510,7 +7571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7565,7 +7626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7622,7 +7683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7709,7 +7770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7782,7 +7843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7845,77 +7906,6 @@
       </c>
       <c r="B6" s="73" t="s">
         <v>314</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="74" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>317</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" s="74" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>320</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -9114,6 +9104,77 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -9177,7 +9238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9301,7 +9362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9348,7 +9409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9386,7 +9447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9441,7 +9502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9521,7 +9582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9597,7 +9658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9652,7 +9713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -9736,103 +9797,6 @@
       </c>
       <c r="J2" s="30" t="s">
         <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G1" t="s">
-        <v>819</v>
-      </c>
-      <c r="H1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>820</v>
-      </c>
-      <c r="K1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D2" t="s">
-        <v>821</v>
-      </c>
-      <c r="E2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F2" t="s">
-        <v>363</v>
-      </c>
-      <c r="G2">
-        <v>111398</v>
-      </c>
-      <c r="H2" t="s">
-        <v>822</v>
-      </c>
-      <c r="I2">
-        <v>1307200433</v>
-      </c>
-      <c r="J2" t="s">
-        <v>823</v>
-      </c>
-      <c r="K2">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -11900,6 +11864,103 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" t="s">
+        <v>819</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="K1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2">
+        <v>111398</v>
+      </c>
+      <c r="H2" t="s">
+        <v>822</v>
+      </c>
+      <c r="I2">
+        <v>1307200433</v>
+      </c>
+      <c r="J2" t="s">
+        <v>823</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11975,7 +12036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -12046,7 +12107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -12232,7 +12293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12439,7 +12500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12513,7 +12574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12599,7 +12660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12643,7 +12704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12700,7 +12761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -12819,7 +12880,176 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="69"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B18" s="69"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" s="69"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12865,201 +13095,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="B17" s="69"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="B18" s="69"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B19" s="69"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1517</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
@@ -13087,6 +13122,32 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1517</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -13179,11 +13240,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13309,7 +13370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -13420,7 +13481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SNG_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="46" activeTab="49"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -61,13 +61,14 @@
     <sheet name="BlockGlobalClient" sheetId="48" r:id="rId47"/>
     <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId48"/>
     <sheet name="CreateGeneralJournal" sheetId="52" r:id="rId49"/>
-    <sheet name="ReverseGL" sheetId="53" r:id="rId50"/>
-    <sheet name="QuoteMPL" sheetId="54" r:id="rId51"/>
-    <sheet name="InvoiceMPL" sheetId="55" r:id="rId52"/>
-    <sheet name="CreateAnAccrualJobByJob" sheetId="56" r:id="rId53"/>
-    <sheet name="CreateAnAccrualForAGroupOfJobs" sheetId="57" r:id="rId54"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId55"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId56"/>
+    <sheet name="CombinedInvoice" sheetId="59" r:id="rId50"/>
+    <sheet name="ReverseGL" sheetId="53" r:id="rId51"/>
+    <sheet name="QuoteMPL" sheetId="54" r:id="rId52"/>
+    <sheet name="InvoiceMPL" sheetId="55" r:id="rId53"/>
+    <sheet name="CreateAnAccrualJobByJob" sheetId="56" r:id="rId54"/>
+    <sheet name="CreateAnAccrualForAGroupOfJobs" sheetId="57" r:id="rId55"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId56"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId57"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="1159">
   <si>
     <t>Description</t>
   </si>
@@ -3539,6 +3540,24 @@
   </si>
   <si>
     <t>11/04/2020</t>
+  </si>
+  <si>
+    <t>Employee Number</t>
+  </si>
+  <si>
+    <t>JobCreation5</t>
+  </si>
+  <si>
+    <t>JobBudgetCreation5</t>
+  </si>
+  <si>
+    <t>CreateQuote5</t>
+  </si>
+  <si>
+    <t>12849905</t>
+  </si>
+  <si>
+    <t>12219905</t>
   </si>
 </sst>
 </file>
@@ -5172,7 +5191,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
@@ -13051,6 +13070,78 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1284</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1221</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="F3" s="59" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -13095,32 +13186,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1517</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
@@ -13148,6 +13213,32 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1517</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -13240,7 +13331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
@@ -13370,7 +13461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -13481,7 +13572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
